--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Fall.120319.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Fall.120319.xlsx_with_dialog_acts.xlsx
@@ -905,12 +905,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1707,12 +1707,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1867,12 +1867,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2137,12 +2137,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3597,12 +3597,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3677,12 +3677,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3947,12 +3947,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4331,12 +4331,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4445,12 +4445,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4833,12 +4833,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5363,12 +5363,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7565,12 +7565,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7873,12 +7873,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8215,12 +8215,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8637,12 +8637,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8751,12 +8751,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9211,12 +9211,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10239,12 +10239,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10509,12 +10509,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10623,12 +10623,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11501,12 +11501,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11539,12 +11539,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12761,12 +12761,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12799,12 +12799,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12913,12 +12913,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13525,12 +13525,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13829,12 +13829,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13905,12 +13905,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14361,12 +14361,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14593,12 +14593,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14821,12 +14821,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14897,12 +14897,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14973,12 +14973,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15319,12 +15319,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15623,12 +15623,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15737,12 +15737,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16079,12 +16079,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16231,12 +16231,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16273,12 +16273,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16501,12 +16501,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16919,12 +16919,12 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16957,12 +16957,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17337,12 +17337,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17413,12 +17413,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17607,12 +17607,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17873,12 +17873,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17915,12 +17915,12 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17953,12 +17953,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18067,12 +18067,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18181,12 +18181,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
